--- a/config_11.9/item_config.xlsx
+++ b/config_11.9/item_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1113">
   <si>
     <t>id|行号</t>
   </si>
@@ -3823,6 +3823,18 @@
   </si>
   <si>
     <t>prop_dice</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_vip4_match</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP4回馈赛门票</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加VIP4回馈赛的门票</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -4431,11 +4443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R346"/>
+  <dimension ref="A1:R347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F351" sqref="F351"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J347" sqref="J347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16195,6 +16207,35 @@
         <v>1107</v>
       </c>
     </row>
+    <row r="347" spans="1:15">
+      <c r="A347" s="10">
+        <v>346</v>
+      </c>
+      <c r="B347" s="10">
+        <v>349</v>
+      </c>
+      <c r="C347" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D347" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E347" s="10">
+        <v>1</v>
+      </c>
+      <c r="G347" s="10">
+        <v>0</v>
+      </c>
+      <c r="H347" s="10">
+        <v>49</v>
+      </c>
+      <c r="I347" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J347" s="10" t="s">
+        <v>1112</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q341"/>
   <phoneticPr fontId="11" type="noConversion"/>
